--- a/teaching/traditional_assets/database/data/morocco/morocco_paper_forest_products.xlsx
+++ b/teaching/traditional_assets/database/data/morocco/morocco_paper_forest_products.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0901</v>
+        <v>-0.0958</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -600,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0826036866359447</v>
+        <v>-0.04049346879535559</v>
       </c>
       <c r="J2">
-        <v>-0.0826036866359447</v>
+        <v>-0.04049346879535559</v>
       </c>
       <c r="K2">
-        <v>-1.38</v>
+        <v>-0.709</v>
       </c>
       <c r="L2">
-        <v>-0.1589861751152074</v>
+        <v>-0.1029027576197388</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,67 +633,67 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.053</v>
+        <v>0.032</v>
       </c>
       <c r="V2">
-        <v>0.009814814814814814</v>
+        <v>0.008101265822784811</v>
       </c>
       <c r="W2">
-        <v>0.5018181818181818</v>
+        <v>0.1729268292682927</v>
       </c>
       <c r="X2">
-        <v>0.2341722160041092</v>
+        <v>0.2736941782819743</v>
       </c>
       <c r="Y2">
-        <v>0.2676459658140726</v>
+        <v>-0.1007673490136816</v>
       </c>
       <c r="Z2">
-        <v>0.757747708424269</v>
+        <v>0.6405131542251556</v>
       </c>
       <c r="AA2">
-        <v>-0.06259275425578351</v>
+        <v>-0.02593659942363112</v>
       </c>
       <c r="AB2">
-        <v>0.07905917076788285</v>
+        <v>0.06684520700920227</v>
       </c>
       <c r="AC2">
-        <v>-0.1416519250236664</v>
+        <v>-0.09278180643283339</v>
       </c>
       <c r="AD2">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="AG2">
-        <v>21.747</v>
+        <v>21.268</v>
       </c>
       <c r="AH2">
-        <v>0.801470588235294</v>
+        <v>0.8435643564356436</v>
       </c>
       <c r="AI2">
-        <v>1.231638418079096</v>
+        <v>1.287787182587666</v>
       </c>
       <c r="AJ2">
-        <v>0.801082992595867</v>
+        <v>0.8433658497898326</v>
       </c>
       <c r="AK2">
-        <v>1.232334107780359</v>
+        <v>1.288345044826751</v>
       </c>
       <c r="AL2">
-        <v>0.623</v>
+        <v>0.426</v>
       </c>
       <c r="AM2">
-        <v>0.623</v>
+        <v>0.426</v>
       </c>
       <c r="AO2">
-        <v>-1.150882825040128</v>
+        <v>-0.6549295774647889</v>
       </c>
       <c r="AQ2">
-        <v>-1.150882825040128</v>
+        <v>-0.6549295774647889</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0901</v>
+        <v>-0.0958</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -722,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.0826036866359447</v>
+        <v>-0.04049346879535559</v>
       </c>
       <c r="J3">
-        <v>-0.0826036866359447</v>
+        <v>-0.04049346879535559</v>
       </c>
       <c r="K3">
-        <v>-1.38</v>
+        <v>-0.709</v>
       </c>
       <c r="L3">
-        <v>-0.1589861751152074</v>
+        <v>-0.1029027576197388</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,67 +755,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.053</v>
+        <v>0.032</v>
       </c>
       <c r="V3">
-        <v>0.009814814814814814</v>
+        <v>0.008101265822784811</v>
       </c>
       <c r="W3">
-        <v>0.5018181818181818</v>
+        <v>0.1729268292682927</v>
       </c>
       <c r="X3">
-        <v>0.2341722160041092</v>
+        <v>0.2736941782819743</v>
       </c>
       <c r="Y3">
-        <v>0.2676459658140726</v>
+        <v>-0.1007673490136816</v>
       </c>
       <c r="Z3">
-        <v>0.757747708424269</v>
+        <v>0.6405131542251556</v>
       </c>
       <c r="AA3">
-        <v>-0.06259275425578351</v>
+        <v>-0.02593659942363112</v>
       </c>
       <c r="AB3">
-        <v>0.07905917076788285</v>
+        <v>0.06684520700920227</v>
       </c>
       <c r="AC3">
-        <v>-0.1416519250236664</v>
+        <v>-0.09278180643283339</v>
       </c>
       <c r="AD3">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>21.8</v>
+        <v>21.3</v>
       </c>
       <c r="AG3">
-        <v>21.747</v>
+        <v>21.268</v>
       </c>
       <c r="AH3">
-        <v>0.801470588235294</v>
+        <v>0.8435643564356436</v>
       </c>
       <c r="AI3">
-        <v>1.231638418079096</v>
+        <v>1.287787182587666</v>
       </c>
       <c r="AJ3">
-        <v>0.801082992595867</v>
+        <v>0.8433658497898326</v>
       </c>
       <c r="AK3">
-        <v>1.232334107780359</v>
+        <v>1.288345044826751</v>
       </c>
       <c r="AL3">
-        <v>0.623</v>
+        <v>0.426</v>
       </c>
       <c r="AM3">
-        <v>0.623</v>
+        <v>0.426</v>
       </c>
       <c r="AO3">
-        <v>-1.150882825040128</v>
+        <v>-0.6549295774647889</v>
       </c>
       <c r="AQ3">
-        <v>-1.150882825040128</v>
+        <v>-0.6549295774647889</v>
       </c>
     </row>
   </sheetData>
